--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -546,10 +546,10 @@
         <v>0.163767</v>
       </c>
       <c r="I2">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J2">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N2">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O2">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P2">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q2">
-        <v>0.447965031049</v>
+        <v>0.3823917234506666</v>
       </c>
       <c r="R2">
-        <v>4.031685279441</v>
+        <v>3.441525511056</v>
       </c>
       <c r="S2">
-        <v>0.07743001709471126</v>
+        <v>0.1099453101092225</v>
       </c>
       <c r="T2">
-        <v>0.1020380404025872</v>
+        <v>0.1278118759112847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.163767</v>
       </c>
       <c r="I3">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J3">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>59.522376</v>
       </c>
       <c r="O3">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P3">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q3">
         <v>1.083088994488</v>
@@ -638,10 +638,10 @@
         <v>9.747800950392</v>
       </c>
       <c r="S3">
-        <v>0.1872101470999109</v>
+        <v>0.3114098660407644</v>
       </c>
       <c r="T3">
-        <v>0.2467073787442025</v>
+        <v>0.3620152520958991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>0.163767</v>
       </c>
       <c r="I4">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J4">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N4">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O4">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P4">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q4">
-        <v>0.2425120874083333</v>
+        <v>0.3435633319966667</v>
       </c>
       <c r="R4">
-        <v>2.182608786674999</v>
+        <v>3.09206998797</v>
       </c>
       <c r="S4">
-        <v>0.04191781449933617</v>
+        <v>0.09878136675571771</v>
       </c>
       <c r="T4">
-        <v>0.05523970948165487</v>
+        <v>0.1148337457740259</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.163767</v>
       </c>
       <c r="I5">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J5">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N5">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O5">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P5">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q5">
-        <v>0.5463184417665</v>
+        <v>0.727360158111</v>
       </c>
       <c r="R5">
-        <v>3.277910650599</v>
+        <v>4.364160948666</v>
       </c>
       <c r="S5">
-        <v>0.0944302419902705</v>
+        <v>0.2091306721363286</v>
       </c>
       <c r="T5">
-        <v>0.08296073632222273</v>
+        <v>0.1620768452350133</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>0.163767</v>
       </c>
       <c r="I6">
-        <v>0.4483824997022501</v>
+        <v>0.8203074518761176</v>
       </c>
       <c r="J6">
-        <v>0.5494025134023524</v>
+        <v>0.8725723693674974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N6">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O6">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P6">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q6">
-        <v>0.2741957249716667</v>
+        <v>0.3166395458956667</v>
       </c>
       <c r="R6">
-        <v>2.467761524745</v>
+        <v>2.849755913061</v>
       </c>
       <c r="S6">
-        <v>0.04739427901802132</v>
+        <v>0.09104023683408455</v>
       </c>
       <c r="T6">
-        <v>0.06245664845168514</v>
+        <v>0.1058346503512743</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H7">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I7">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J7">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.206141000000001</v>
+        <v>7.004922666666666</v>
       </c>
       <c r="N7">
-        <v>24.618423</v>
+        <v>21.014768</v>
       </c>
       <c r="O7">
-        <v>0.1726874201070044</v>
+        <v>0.134029393318039</v>
       </c>
       <c r="P7">
-        <v>0.185725470694853</v>
+        <v>0.1464771065395205</v>
       </c>
       <c r="Q7">
-        <v>0.5511039142075002</v>
+        <v>0.08376486524799999</v>
       </c>
       <c r="R7">
-        <v>3.306623485245</v>
+        <v>0.502589191488</v>
       </c>
       <c r="S7">
-        <v>0.09525740301229317</v>
+        <v>0.02408408320881647</v>
       </c>
       <c r="T7">
-        <v>0.08368743029226583</v>
+        <v>0.01866523062823576</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H8">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I8">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J8">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>59.522376</v>
       </c>
       <c r="O8">
-        <v>0.4175233137426827</v>
+        <v>0.3796257919253833</v>
       </c>
       <c r="P8">
-        <v>0.4490466874939968</v>
+        <v>0.4148827819958515</v>
       </c>
       <c r="Q8">
-        <v>1.33245798874</v>
+        <v>0.237256190736</v>
       </c>
       <c r="R8">
-        <v>7.994747932440001</v>
+        <v>1.423537144416</v>
       </c>
       <c r="S8">
-        <v>0.2303131666427718</v>
+        <v>0.06821592588461889</v>
       </c>
       <c r="T8">
-        <v>0.2023393087497943</v>
+        <v>0.0528675298999525</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H9">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I9">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J9">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.442508333333333</v>
+        <v>6.293636666666667</v>
       </c>
       <c r="N9">
-        <v>13.327525</v>
+        <v>18.88091</v>
       </c>
       <c r="O9">
-        <v>0.09348673181306549</v>
+        <v>0.12041993100245</v>
       </c>
       <c r="P9">
-        <v>0.100545061469714</v>
+        <v>0.1316036924905903</v>
       </c>
       <c r="Q9">
-        <v>0.2983477533958333</v>
+        <v>0.07525930726000001</v>
       </c>
       <c r="R9">
-        <v>1.790086520375</v>
+        <v>0.45155584356</v>
       </c>
       <c r="S9">
-        <v>0.05156891731372932</v>
+        <v>0.02163856424673235</v>
       </c>
       <c r="T9">
-        <v>0.04530535198805911</v>
+        <v>0.01676994671656441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.5</v>
       </c>
       <c r="G10">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H10">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I10">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J10">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.0078485</v>
+        <v>13.324299</v>
       </c>
       <c r="N10">
-        <v>20.015697</v>
+        <v>26.648598</v>
       </c>
       <c r="O10">
-        <v>0.2106019794549903</v>
+        <v>0.2549418168249328</v>
       </c>
       <c r="P10">
-        <v>0.1510017415254648</v>
+        <v>0.1857460205306503</v>
       </c>
       <c r="Q10">
-        <v>0.6721020856387502</v>
+        <v>0.159331967442</v>
       </c>
       <c r="R10">
-        <v>2.688408342555001</v>
+        <v>0.637327869768</v>
       </c>
       <c r="S10">
-        <v>0.1161717374647199</v>
+        <v>0.04581114468860425</v>
       </c>
       <c r="T10">
-        <v>0.06804100520324208</v>
+        <v>0.02366917529563696</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.5</v>
       </c>
       <c r="G11">
-        <v>0.06715750000000001</v>
+        <v>0.011958</v>
       </c>
       <c r="H11">
-        <v>0.134315</v>
+        <v>0.023916</v>
       </c>
       <c r="I11">
-        <v>0.5516175002977499</v>
+        <v>0.1796925481238824</v>
       </c>
       <c r="J11">
-        <v>0.4505974865976476</v>
+        <v>0.1274276306325027</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.022911666666666</v>
+        <v>5.800427666666667</v>
       </c>
       <c r="N11">
-        <v>15.068735</v>
+        <v>17.401283</v>
       </c>
       <c r="O11">
-        <v>0.1057005548822571</v>
+        <v>0.110983066929195</v>
       </c>
       <c r="P11">
-        <v>0.1136810388159715</v>
+        <v>0.1212903984433873</v>
       </c>
       <c r="Q11">
-        <v>0.3373261902541667</v>
+        <v>0.06936151403800001</v>
       </c>
       <c r="R11">
-        <v>2.023957141525</v>
+        <v>0.416169084228</v>
       </c>
       <c r="S11">
-        <v>0.05830627586423579</v>
+        <v>0.01994283009511043</v>
       </c>
       <c r="T11">
-        <v>0.05122439036428639</v>
+        <v>0.01545574809211304</v>
       </c>
     </row>
   </sheetData>
